--- a/readme/excel_file.xlsx
+++ b/readme/excel_file.xlsx
@@ -12,15 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>speed</t>
+    <t>Sepal.Length</t>
   </si>
   <si>
-    <t>dist</t>
+    <t>Sepal.Width</t>
   </si>
   <si>
-    <t>var1</t>
+    <t>Petal.Length</t>
+  </si>
+  <si>
+    <t>Petal.Width</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>setosa</t>
   </si>
   <si>
     <t>excel</t>
@@ -100,38 +112,74 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>5.1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.0</v>
+        <v>4.9</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.0</v>
+        <v>4.7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>3.2</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
